--- a/classfiers/greedy/svm/smote/greedy-svm-poly-results.xlsx
+++ b/classfiers/greedy/svm/smote/greedy-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8812260536398467</v>
+        <v>0.9947916666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.8268398268398268</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9368635437881875</v>
+        <v>0.9030732860520095</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9644234404536862</v>
+        <v>0.9954461123292292</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8243727598566308</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.8528138528138528</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9037328094302554</v>
+        <v>0.9205607476635514</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9922306238185254</v>
+        <v>0.9967579318228669</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5665024630541872</v>
+        <v>0.8776371308016878</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9004329004329005</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7232704402515723</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8531190926275992</v>
+        <v>0.9520061468113415</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.572139303482587</v>
+        <v>0.9797979797979798</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.8434782608695652</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7278481012658228</v>
+        <v>0.9065420560747663</v>
       </c>
       <c r="E5" t="n">
-        <v>0.737523629489603</v>
+        <v>0.990438546960286</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5088495575221239</v>
+        <v>0.9898989898989899</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6744868035190617</v>
+        <v>0.9137529137529138</v>
       </c>
       <c r="E6" t="n">
-        <v>0.913421550094518</v>
+        <v>0.990231507622812</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6706180275110751</v>
+        <v>0.9684251534330647</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.8544099378881989</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7932403396509798</v>
+        <v>0.9065635784864261</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8921436672967864</v>
+        <v>0.9849760491093071</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/greedy/svm/smote/greedy-svm-poly-results.xlsx
+++ b/classfiers/greedy/svm/smote/greedy-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9947916666666666</v>
+        <v>0.9457013574660633</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8268398268398268</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9030732860520095</v>
+        <v>0.9720930232558139</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9954461123292292</v>
+        <v>0.9931875142401458</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0.7572463768115942</v>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.8528138528138528</v>
-      </c>
       <c r="D3" t="n">
-        <v>0.9205607476635514</v>
+        <v>0.8618556701030928</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9967579318228669</v>
+        <v>0.9887218045112782</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8776371308016878</v>
+        <v>0.6441717791411042</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9004329004329005</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.888888888888889</v>
+        <v>0.7835820895522388</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9520061468113415</v>
+        <v>0.933697881066302</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9797979797979798</v>
+        <v>0.7191780821917808</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8434782608695652</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9065420560747663</v>
+        <v>0.8366533864541833</v>
       </c>
       <c r="E5" t="n">
-        <v>0.990438546960286</v>
+        <v>0.9602642971064024</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9898989898989899</v>
+        <v>0.8326693227091634</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8484848484848485</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9137529137529138</v>
+        <v>0.908695652173913</v>
       </c>
       <c r="E6" t="n">
-        <v>0.990231507622812</v>
+        <v>0.9762139145166091</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9684251534330647</v>
+        <v>0.7797933836639412</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8544099378881989</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9065635784864261</v>
+        <v>0.8725759643078485</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9849760491093071</v>
+        <v>0.9704170822881476</v>
       </c>
     </row>
   </sheetData>
